--- a/Text/01.기능정의서/3th_Project_기능 정의서(6기_안영우).xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(6기_안영우).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dksdu\OneDrive\문서\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B807F-CA69-4AA4-8C1C-61D8F28D829E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80443537-5D27-44FB-9D61-5740566F3528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
   <si>
     <t>번호</t>
   </si>
@@ -479,12 +479,6 @@
     <t>시험풀기</t>
   </si>
   <si>
-    <t>- 셀렉트 박스의 자격증 항목 선택</t>
-  </si>
-  <si>
-    <t>- 셀렉트 박스의 기출문제 항목 선택</t>
-  </si>
-  <si>
     <t>시험해설</t>
   </si>
   <si>
@@ -494,65 +488,115 @@
     <t>R</t>
   </si>
   <si>
-    <t>- 물음표 버튼 클릭시 설명문 노출/은닉</t>
+    <t>Test Select</t>
+  </si>
+  <si>
+    <t>- 시험 시간 타이머
+- 타이머 종료시 자동으로 시험결과 페이지로 전송</t>
+  </si>
+  <si>
+    <t>C,R</t>
+  </si>
+  <si>
+    <t>- 사용자 답안 채점</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-TB-TE-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 셀렉트 박스의 기출문제 항목 선택
+- 선택한 기출문제에 해당하는 과목 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 셀렉트 박스의 자격증 항목 선택
+- 선택한 자격증에 해당하는 기출문제 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>- 체크 박스의 과목 항목 선택
 - 라디오 박스의 시간 제한 여부 선택
-- 시험풀기 버튼 클릭시 시험풀기 페이지로 전송</t>
-  </si>
-  <si>
-    <t>- ? 버튼 클릭시 설명문 노출/은닉</t>
-  </si>
-  <si>
-    <t>Test Select</t>
-  </si>
-  <si>
-    <t>- 답 선택시, 번호 이동 버튼을 회색으로 변경</t>
-  </si>
-  <si>
-    <t>- 번호 이동 버튼 클릭시, 해당 문제 노출</t>
-  </si>
-  <si>
-    <t>- 다음 버튼 클릭시, 다음 문제 노출</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 이전 버튼 클릭시, 이전 문제 노출                                                                                                                                                                                                           </t>
-  </si>
-  <si>
-    <t>- 제출 버튼 클릭시, 시험 결과 페이지로 전송</t>
-  </si>
-  <si>
-    <t>- 시험 시간 타이머
-- 타이머 종료시 자동으로 시험결과 페이지로 전송</t>
-  </si>
-  <si>
-    <t>- 시험선택 버튼 클릭시, 시험선택 페이지로 이동</t>
-  </si>
-  <si>
-    <t>C,R</t>
-  </si>
-  <si>
-    <t>- 사용자 답안 채점</t>
-  </si>
-  <si>
-    <t>- 시험해설 버튼 클릭시, 시험해설 페이지로 이동</t>
-  </si>
-  <si>
-    <t>O</t>
+- [시험풀기 버튼] 클릭시 시험풀기 페이지로 전송</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F-TB-TE-01</t>
+    <t>- [? 버튼] 클릭시 설명문 노출/은닉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
+    <t>- [번호 이동 버튼] 클릭시, 해당 문제 노출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 채점한 정담/오답 여부로 번호 이동 버튼 색칠
-- 번호 이동 버튼 클릭시, 해당 문제 노출</t>
+    <t xml:space="preserve">- [이전 버튼] 클릭시, 이전 문제 노출                                                                                                                                                                                                           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [다음 버튼] 클릭시, 다음 문제 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [제출 버튼] 클릭시, 시험 결과 페이지로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 답안 선택시, 해당 [번호 이동 버튼]을 회색으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-TB-TT-09</t>
+  </si>
+  <si>
+    <t>- [해설보기 버튼] 클릭시, 시험해설 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [시험 재선택 버튼] 클릭시, 시험선택 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-TB-TR-04</t>
+  </si>
+  <si>
+    <t>F-TB-TR-05</t>
+  </si>
+  <si>
+    <t>- 선택한 시험의 자격증 / 기출문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시험 풀고 남은 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-TB-TE-06</t>
+  </si>
+  <si>
+    <t>F-TB-TE-07</t>
+  </si>
+  <si>
+    <t>F-TB-TE-08</t>
+  </si>
+  <si>
+    <t>- 선택한 시험의 문제 / 선택한 답안 / 오답률 / 해설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 채점한 정담/오답 여부에 따라 [번호 이동 버튼] 색칠
+- [번호 이동 버튼] 클릭시, 해당 문제 노출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,80 +1028,98 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1079,24 +1141,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1406,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:C41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1419,99 +1463,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -1520,16 +1564,16 @@
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="13" t="s">
         <v>19</v>
       </c>
@@ -1541,16 +1585,16 @@
       <c r="B10" s="10">
         <v>43717</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1558,14 +1602,14 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1573,16 +1617,16 @@
       <c r="B12" s="10">
         <v>43720</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="6" t="s">
         <v>68</v>
       </c>
@@ -1590,308 +1634,308 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
       <c r="K33" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="47"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
       <c r="K36" s="13" t="s">
         <v>19</v>
       </c>
@@ -1900,17 +1944,17 @@
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="6" t="s">
         <v>23</v>
       </c>
@@ -1919,17 +1963,17 @@
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="6" t="s">
         <v>23</v>
       </c>
@@ -1938,17 +1982,17 @@
       <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="6" t="s">
         <v>23</v>
       </c>
@@ -1957,17 +2001,17 @@
       <c r="A40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="6" t="s">
         <v>23</v>
       </c>
@@ -1976,17 +2020,17 @@
       <c r="A41" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="6" t="s">
         <v>68</v>
       </c>
@@ -1995,17 +2039,17 @@
       <c r="A42" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
+      <c r="B42" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="61"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="6" t="s">
         <v>68</v>
       </c>
@@ -2014,17 +2058,17 @@
       <c r="A43" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2033,17 +2077,17 @@
       <c r="A44" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="6" t="s">
         <v>68</v>
       </c>
@@ -2052,17 +2096,17 @@
       <c r="A45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
       <c r="K45" s="6" t="s">
         <v>23</v>
       </c>
@@ -2071,17 +2115,17 @@
       <c r="A46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="6" t="s">
         <v>23</v>
       </c>
@@ -2090,17 +2134,17 @@
       <c r="A47" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
       <c r="K47" s="6" t="s">
         <v>23</v>
       </c>
@@ -2109,17 +2153,17 @@
       <c r="A48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="6" t="s">
         <v>23</v>
       </c>
@@ -2128,17 +2172,17 @@
       <c r="A49" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="6" t="s">
         <v>23</v>
       </c>
@@ -2147,17 +2191,17 @@
       <c r="A50" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="6" t="s">
         <v>23</v>
       </c>
@@ -2166,17 +2210,17 @@
       <c r="A51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="6" t="s">
         <v>23</v>
       </c>
@@ -2185,17 +2229,17 @@
       <c r="A52" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
       <c r="K52" s="6" t="s">
         <v>23</v>
       </c>
@@ -2204,17 +2248,17 @@
       <c r="A53" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
       <c r="K53" s="6" t="s">
         <v>23</v>
       </c>
@@ -2223,17 +2267,17 @@
       <c r="A54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="6" t="s">
         <v>23</v>
       </c>
@@ -2242,17 +2286,17 @@
       <c r="A55" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
       <c r="K55" s="6" t="s">
         <v>23</v>
       </c>
@@ -2261,17 +2305,17 @@
       <c r="A56" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="6" t="s">
         <v>23</v>
       </c>
@@ -2280,17 +2324,17 @@
       <c r="A57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
       <c r="K57" s="6" t="s">
         <v>23</v>
       </c>
@@ -2299,17 +2343,17 @@
       <c r="A58" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="6" t="s">
         <v>23</v>
       </c>
@@ -2318,17 +2362,17 @@
       <c r="A59" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
       <c r="K59" s="6" t="s">
         <v>23</v>
       </c>
@@ -2337,17 +2381,17 @@
       <c r="A60" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
       <c r="K60" s="6" t="s">
         <v>23</v>
       </c>
@@ -2356,17 +2400,17 @@
       <c r="A61" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
       <c r="K61" s="6" t="s">
         <v>23</v>
       </c>
@@ -2375,17 +2419,17 @@
       <c r="A62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="6" t="s">
         <v>23</v>
       </c>
@@ -2394,17 +2438,17 @@
       <c r="A63" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
       <c r="K63" s="6" t="s">
         <v>23</v>
       </c>
@@ -2413,17 +2457,17 @@
       <c r="A64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="6" t="s">
         <v>23</v>
       </c>
@@ -2432,17 +2476,17 @@
       <c r="A65" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
       <c r="K65" s="6" t="s">
         <v>23</v>
       </c>
@@ -2451,17 +2495,17 @@
       <c r="A66" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="6" t="s">
         <v>23</v>
       </c>
@@ -2470,17 +2514,17 @@
       <c r="A67" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
       <c r="K67" s="4"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2489,254 +2533,158 @@
       <c r="A68" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="4"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
       <c r="K69" s="4"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="4"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
       <c r="K71" s="4"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="4"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
       <c r="K73" s="4"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="4"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
       <c r="K75" s="4"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="4"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
       <c r="K77" s="4"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A1:K6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="D75:J75"/>
     <mergeCell ref="B76:C76"/>
@@ -2753,6 +2701,102 @@
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="A1:K6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2762,11 +2806,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2781,33 +2825,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="3"/>
@@ -2819,12 +2863,12 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
@@ -2834,8 +2878,8 @@
       <c r="I2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2866,15 +2910,15 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="71" t="s">
         <v>109</v>
       </c>
       <c r="E4" s="25"/>
@@ -2885,14 +2929,14 @@
         <v>15</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="29" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -2902,13 +2946,13 @@
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
     </row>
-    <row r="5" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
         <v>14</v>
@@ -2924,7 +2968,7 @@
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="29" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
@@ -2939,8 +2983,8 @@
       <c r="B6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
         <v>14</v>
@@ -2949,14 +2993,14 @@
         <v>15</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="30" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -2971,20 +3015,20 @@
       <c r="B7" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="30" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -2994,31 +3038,27 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="19" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="65" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>15</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="30" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -3028,29 +3068,29 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" s="19" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="27" t="s">
-        <v>117</v>
+      <c r="F9" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -3065,24 +3105,24 @@
       <c r="B10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
-        <v>14</v>
+      <c r="F10" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="26"/>
-      <c r="K10" s="28" t="s">
-        <v>123</v>
+      <c r="K10" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -3092,25 +3132,29 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" s="19" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="G11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="30" t="s">
-        <v>125</v>
+      <c r="K11" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -3120,13 +3164,13 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="19" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
@@ -3137,8 +3181,8 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="28" t="s">
-        <v>124</v>
+      <c r="K12" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -3153,18 +3197,20 @@
       <c r="B13" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -3174,13 +3220,13 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
@@ -3189,8 +3235,8 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="32" t="s">
-        <v>128</v>
+      <c r="K14" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -3200,25 +3246,23 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>116</v>
-      </c>
+      <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="33" t="s">
-        <v>118</v>
+      <c r="J15" s="26"/>
+      <c r="K15" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -3231,254 +3275,297 @@
     <row r="16" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="65" t="s">
-        <v>12</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
-        <v>129</v>
-      </c>
+      <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>15</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="31"/>
       <c r="K16" s="33" t="s">
-        <v>130</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="66"/>
+        <v>96</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="71" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="31"/>
       <c r="K17" s="33" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="67"/>
+        <v>97</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="G18" s="26" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="K18" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="65" t="s">
-        <v>115</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>132</v>
-      </c>
       <c r="J19" s="31"/>
-      <c r="K19" s="69" t="s">
-        <v>135</v>
+      <c r="K19" s="33" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="66"/>
+        <v>135</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="70" t="s">
-        <v>125</v>
+      <c r="K20" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="66"/>
+        <v>136</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="71" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="31"/>
+      <c r="K21" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+        <v>121</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="26" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="26"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26" t="s">
+      <c r="C26" s="69"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="40" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
@@ -3519,7 +3606,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -3532,7 +3619,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -3545,7 +3632,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -3558,7 +3645,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -3571,7 +3658,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3584,7 +3671,7 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -3597,7 +3684,7 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -3610,7 +3697,7 @@
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -3623,7 +3710,7 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -3636,7 +3723,7 @@
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3649,7 +3736,7 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -3662,7 +3749,7 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -3674,15 +3761,8 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -3694,15 +3774,8 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -3714,15 +3787,8 @@
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -3734,15 +3800,8 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -3754,13 +3813,6 @@
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
@@ -3774,13 +3826,6 @@
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
@@ -3894,6 +3939,13 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
@@ -4007,13 +4059,6 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
@@ -4056,17 +4101,17 @@
       <c r="R63" s="19"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="19"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
@@ -4107,6 +4152,13 @@
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
@@ -4120,6 +4172,13 @@
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
@@ -4133,6 +4192,13 @@
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
@@ -4146,19 +4212,33 @@
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
@@ -4172,6 +4252,13 @@
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
@@ -4381,21 +4468,104 @@
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:C29"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="D22:D29"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:J2"/>
@@ -4405,14 +4575,9 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Text/01.기능정의서/3th_Project_기능 정의서(6기_안영우).xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(6기_안영우).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dksdu\OneDrive\문서\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80443537-5D27-44FB-9D61-5740566F3528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B352A34-E7A5-4239-BFDB-1A667786D627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="147">
   <si>
     <t>번호</t>
   </si>
@@ -556,10 +556,6 @@
     <t>F-TB-TT-09</t>
   </si>
   <si>
-    <t>- [해설보기 버튼] 클릭시, 시험해설 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- [시험 재선택 버튼] 클릭시, 시험선택 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +593,17 @@
   <si>
     <t>- 채점한 정담/오답 여부에 따라 [번호 이동 버튼] 색칠
 - [번호 이동 버튼] 클릭시, 해당 문제 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-TB-TE-09</t>
+  </si>
+  <si>
+    <t>- [결과보기 버튼] 클릭시, 시험결과 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [해설보기 버튼] 클릭시, 시험해설 페이지로 전송</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,6 +1050,51 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,77 +1122,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1450,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D41" sqref="D41:J41"/>
     </sheetView>
   </sheetViews>
@@ -1463,84 +1470,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
@@ -1564,16 +1571,16 @@
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
       <c r="K9" s="13" t="s">
         <v>19</v>
       </c>
@@ -1585,16 +1592,16 @@
       <c r="B10" s="10">
         <v>43717</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1602,14 +1609,14 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1617,16 +1624,16 @@
       <c r="B12" s="10">
         <v>43720</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="6" t="s">
         <v>68</v>
       </c>
@@ -1634,261 +1641,261 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1923,19 +1930,19 @@
       <c r="A36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="13" t="s">
         <v>19</v>
       </c>
@@ -1944,17 +1951,17 @@
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
       <c r="K37" s="6" t="s">
         <v>23</v>
       </c>
@@ -1963,17 +1970,17 @@
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
       <c r="K38" s="6" t="s">
         <v>23</v>
       </c>
@@ -1982,17 +1989,17 @@
       <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="6" t="s">
         <v>23</v>
       </c>
@@ -2001,17 +2008,17 @@
       <c r="A40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="6" t="s">
         <v>23</v>
       </c>
@@ -2020,17 +2027,17 @@
       <c r="A41" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="6" t="s">
         <v>68</v>
       </c>
@@ -2039,17 +2046,17 @@
       <c r="A42" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="6" t="s">
         <v>68</v>
       </c>
@@ -2058,17 +2065,17 @@
       <c r="A43" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2077,17 +2084,17 @@
       <c r="A44" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="6" t="s">
         <v>68</v>
       </c>
@@ -2096,17 +2103,17 @@
       <c r="A45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
       <c r="K45" s="6" t="s">
         <v>23</v>
       </c>
@@ -2115,17 +2122,17 @@
       <c r="A46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
       <c r="K46" s="6" t="s">
         <v>23</v>
       </c>
@@ -2134,17 +2141,17 @@
       <c r="A47" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="6" t="s">
         <v>23</v>
       </c>
@@ -2153,17 +2160,17 @@
       <c r="A48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
       <c r="K48" s="6" t="s">
         <v>23</v>
       </c>
@@ -2172,17 +2179,17 @@
       <c r="A49" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
       <c r="K49" s="6" t="s">
         <v>23</v>
       </c>
@@ -2191,17 +2198,17 @@
       <c r="A50" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
       <c r="K50" s="6" t="s">
         <v>23</v>
       </c>
@@ -2210,17 +2217,17 @@
       <c r="A51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
       <c r="K51" s="6" t="s">
         <v>23</v>
       </c>
@@ -2229,17 +2236,17 @@
       <c r="A52" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
       <c r="K52" s="6" t="s">
         <v>23</v>
       </c>
@@ -2248,17 +2255,17 @@
       <c r="A53" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
       <c r="K53" s="6" t="s">
         <v>23</v>
       </c>
@@ -2267,17 +2274,17 @@
       <c r="A54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
       <c r="K54" s="6" t="s">
         <v>23</v>
       </c>
@@ -2286,17 +2293,17 @@
       <c r="A55" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
       <c r="K55" s="6" t="s">
         <v>23</v>
       </c>
@@ -2305,17 +2312,17 @@
       <c r="A56" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
       <c r="K56" s="6" t="s">
         <v>23</v>
       </c>
@@ -2324,17 +2331,17 @@
       <c r="A57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
       <c r="K57" s="6" t="s">
         <v>23</v>
       </c>
@@ -2343,17 +2350,17 @@
       <c r="A58" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
       <c r="K58" s="6" t="s">
         <v>23</v>
       </c>
@@ -2362,17 +2369,17 @@
       <c r="A59" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
       <c r="K59" s="6" t="s">
         <v>23</v>
       </c>
@@ -2381,17 +2388,17 @@
       <c r="A60" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
       <c r="K60" s="6" t="s">
         <v>23</v>
       </c>
@@ -2400,17 +2407,17 @@
       <c r="A61" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
       <c r="K61" s="6" t="s">
         <v>23</v>
       </c>
@@ -2419,17 +2426,17 @@
       <c r="A62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
       <c r="K62" s="6" t="s">
         <v>23</v>
       </c>
@@ -2438,17 +2445,17 @@
       <c r="A63" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
       <c r="K63" s="6" t="s">
         <v>23</v>
       </c>
@@ -2457,17 +2464,17 @@
       <c r="A64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
       <c r="K64" s="6" t="s">
         <v>23</v>
       </c>
@@ -2476,17 +2483,17 @@
       <c r="A65" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
       <c r="K65" s="6" t="s">
         <v>23</v>
       </c>
@@ -2495,17 +2502,17 @@
       <c r="A66" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
       <c r="K66" s="6" t="s">
         <v>23</v>
       </c>
@@ -2514,17 +2521,17 @@
       <c r="A67" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
       <c r="K67" s="4"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2533,158 +2540,254 @@
       <c r="A68" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
       <c r="K68" s="4"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
       <c r="K69" s="4"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
       <c r="K70" s="4"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
       <c r="K71" s="4"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
       <c r="K72" s="4"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
       <c r="K73" s="4"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
       <c r="K74" s="4"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
       <c r="K75" s="4"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
       <c r="K76" s="4"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
       <c r="K77" s="4"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A1:K6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="D75:J75"/>
     <mergeCell ref="B76:C76"/>
@@ -2701,102 +2804,6 @@
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A1:K6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,11 +2813,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2825,33 +2832,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="73" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="3"/>
@@ -2863,12 +2870,12 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
@@ -2878,8 +2885,8 @@
       <c r="I2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2915,10 +2922,10 @@
       <c r="B4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="70" t="s">
         <v>109</v>
       </c>
       <c r="E4" s="25"/>
@@ -2951,8 +2958,8 @@
       <c r="B5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
         <v>14</v>
@@ -2983,8 +2990,8 @@
       <c r="B6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
         <v>14</v>
@@ -3015,8 +3022,8 @@
       <c r="B7" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
@@ -3043,8 +3050,8 @@
       <c r="B8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="71" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="26"/>
@@ -3058,7 +3065,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -3073,8 +3080,8 @@
       <c r="B9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26" t="s">
         <v>14</v>
@@ -3105,8 +3112,8 @@
       <c r="B10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="26"/>
       <c r="F10" s="27" t="s">
         <v>115</v>
@@ -3137,8 +3144,8 @@
       <c r="B11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="72"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26" t="s">
         <v>14</v>
@@ -3169,8 +3176,8 @@
       <c r="B12" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
@@ -3197,8 +3204,8 @@
       <c r="B13" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26" t="s">
@@ -3225,8 +3232,8 @@
       <c r="B14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
@@ -3251,18 +3258,20 @@
       <c r="B15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -3277,8 +3286,8 @@
       <c r="B16" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
@@ -3305,8 +3314,8 @@
       <c r="B17" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="71" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="70" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="26"/>
@@ -3318,7 +3327,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="31"/>
       <c r="K17" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3326,11 +3335,11 @@
       <c r="B18" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>120</v>
@@ -3339,7 +3348,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="31"/>
       <c r="K18" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3347,8 +3356,8 @@
       <c r="B19" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
         <v>118</v>
@@ -3368,10 +3377,10 @@
     <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="72"/>
+        <v>134</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
@@ -3381,26 +3390,28 @@
       <c r="I20" s="26"/>
       <c r="J20" s="31"/>
       <c r="K20" s="33" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="73"/>
+        <v>135</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="I21" s="26"/>
       <c r="J21" s="31"/>
       <c r="K21" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3408,8 +3419,8 @@
       <c r="B22" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="71" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="70" t="s">
         <v>113</v>
       </c>
       <c r="E22" s="26"/>
@@ -3421,7 +3432,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="31"/>
       <c r="K22" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3429,8 +3440,8 @@
       <c r="B23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26" t="s">
@@ -3440,7 +3451,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="31"/>
       <c r="K23" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3448,16 +3459,18 @@
       <c r="B24" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="s">
+        <v>122</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="31"/>
       <c r="K24" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3465,8 +3478,8 @@
       <c r="B25" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
         <v>122</v>
@@ -3482,7 +3495,7 @@
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -3490,8 +3503,8 @@
       <c r="B26" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
@@ -3509,10 +3522,10 @@
     <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="72"/>
+        <v>139</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
@@ -3527,58 +3540,68 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+        <v>140</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+        <v>120</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="39" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="73"/>
+        <v>141</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="40" t="s">
+      <c r="H30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="40" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
@@ -3839,13 +3862,6 @@
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
@@ -4059,6 +4075,13 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
@@ -4072,13 +4095,6 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
@@ -4221,17 +4237,17 @@
       <c r="R69" s="19"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
@@ -4241,17 +4257,17 @@
       <c r="R70" s="19"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
       <c r="L71" s="19"/>
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
@@ -4272,6 +4288,13 @@
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
@@ -4546,26 +4569,34 @@
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C4:C29"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="D22:D29"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:J2"/>
@@ -4575,6 +4606,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C4:C30"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="D22:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
